--- a/Keyword Creation/N3 - ENFORCEMENT ORDERS.xlsx
+++ b/Keyword Creation/N3 - ENFORCEMENT ORDERS.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="988" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" state="visible" r:id="rId2"/>
@@ -245,14 +245,14 @@
   </sheetPr>
   <dimension ref="A1:C65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="27.2064777327935"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="42.3117408906883"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="27.4210526315789"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="42.6315789473684"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="1.39271255060729"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.7125506072875"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="10.6032388663968"/>
